--- a/finetuning/it_datasets/it_dataset/it_sidi bouzid_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_sidi bouzid_dataset.xlsx
@@ -650,7 +650,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in Sidi Bouzid and looking for a top-rated cafe, check out Cafe Phinix located at 2FH4+HGM Cafe Phinix, Sidi Bouzid. This cafe offers a range of options for cafe enthusiasts and has a rating of 4.3. It's open from 6:00 AM to 2:00 AM every day. To get there, use these GPS coordinates: 35.0388485, 9.4902576.</t>
+          <t>Café Phinix, located in Sidi Bouzid at coordinates (35.0388485, 9.4902576), is a top-rated cafe with a 4.3 rating based on 24 reviews. Open from 6:00 AM to 2:00 AM daily, Café Phinix offers a vibrant and welcoming ambiance. The cafe specializes in delicious coffee and beverages, making it an ideal spot for coffee enthusiasts and those seeking a relaxing atmosphere.</t>
         </is>
       </c>
     </row>
@@ -749,9 +749,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a great cafe, check out Cafe La piazza. 
-This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 07:30-22:30, but closed on dimanche. To get there, use these GPS coordinates: 33.2304819, -8.5518921. Visit their website or call them for more details.</t>
+          <t>Cafe La piazza is a cafe located in Sidi Bouzid, offering a cozy ambiance and a range of menu items. It's open from 07:30-22:30 during the week and closed on Sundays. It has received positive reviews from customers, with some mentioning a great experience.</t>
         </is>
       </c>
     </row>
@@ -854,10 +852,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you find yourself in Sidi Bouzid and searching for a delightful cafe experience, head over to Cafe El woroud, conveniently located at 2FM9+7FF, Cafe El woroud, C125. 
-A top-rated destination among cafe enthusiasts, it offers a 4.8 rating and a wide selection of cafe options to satisfy your cravings. 
-Cafe El woroud opens its doors daily from 6:00 AM to 12:00 AM, welcoming you to indulge in their offerings. 
-For further inquiries, you can reach them via phone at 53 577 616. Please note that the Cafe is closed on, but the specific days are not provided.</t>
+          <t>Cafe El woroud is a highly-rated cafe in Sidi Bouzid, Tunisia, boasting a 4.8-star rating from 20 reviews. Situated at coordinates (35.034902, 9.4619265), it is open daily from 6 AM to midnight. While the cafe's description is currently unavailable, it offers a cozy ambiance for customers to enjoy its coffee and cafe menu.</t>
         </is>
       </c>
     </row>
@@ -956,7 +951,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in Sidi Bouzid and looking for a delightful place to relax, visit The Lodge, located on Unnamed Road, 9100 Av. De Baghdad. This top-rated tea salon welcomes tea enthusiasts and offers a cozy atmosphere. With a rating of 4.6, it's a must-try destination. It's open from 8:00 AM to midnight every day. For more information, visit the link provided.</t>
+          <t>Nestled in the heart of Sidi Bouzid, "The Lodge" is a charming tea room that offers a delightful escape. Situated at coordinates (35.034902, 9.4619265), it welcomes guests to savor a delectable breakfast in a cozy and inviting ambiance.</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1050,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a great cafe, check out 2B Coffee located at 2FGG+3J 2B Coffee. This top-rated destination is perfect for cafe lovers and offers a range of categories to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, visit their website or call them at 94 938 209.</t>
+          <t>2B Coffee is a cafe located in Sidi Bouzid, Tunisia. It has a rating of 4.4 stars based on 17 reviews. The cafe is open daily and offers a variety of coffee drinks, as well as pastries and other snacks. 2B Coffee is located at 2FGG+3J, Sidi Bouzid, Tunisia.</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1157,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a great cafe, check out Selfie Coffee Shop located at 2FM9+MX6 Selfie Coffee Shop. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, visit their website at http://selfie.com/ or call them at 52 191 809.</t>
+          <t>Selfie Coffee Shop, located in Sidi Bouzid (35.0388485, 9.4902576), is an establishment that stays open 24/7. It offers a variety of amenities to its customers, including Wi-Fi and outdoor seating. Customers enjoy the cozy ambiance of the coffee shop and the friendly service.</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1260,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for something fun to do, check out Big 4 Coffee Lounge located at Centre Souissi a cote de Boutique Hammadi, Abid, Sidi Bouzid 9100. This top-rated destination is perfect for Salon de the lovers. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 35.034902, 9.4619265. For more details, visit their website at https://www.google.com/maps/place/Big+4+Coffee+Lounge/data=!4m7!3m6!1s0x12fec3308984a05f:0xbf67d6f5d397eba6!8m2!3d35.0322326!4d9.4705995!16s%2Fg%2F11q21pqv5k!19sChIJX6CEiTDD_hIRpuuX0_XWZ78?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 52 417 323.</t>
+          <t>**Big 4 Coffee Lounge**: A cozy coffee lounge located in the heart of Sidi Bouzid, Tunisia. Situated at coordinates (35.034902, 9.4619265), it offers a relaxing ambiance and a delightful menu of coffee, tea, and snacks.</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1363,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in Sidi Bouzid and looking for a relaxing place to unwind, check out Casablanca located at Bd Mohamed Bouazizi. This top-rated destination is perfect for tea lovers. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, visit their website or call them at 54 771 771.</t>
+          <t>Casablanca is a 4.6-rated tea room located in Sidi Bouzid, Tunisia. It is open from 7am to midnight every day, and serves a variety of teas and pastries. Casablanca also has a featured image, reviews, and a link to its website.</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1466,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in Sidi Bouzid and looking for a top-rated Cafe, check out Cafe La Phalene located at 2FMF+46Q Cafe La Phalene. This must-visit spot has a rating of 5.0 and is open daily from 08:00-00:00. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, visit their website or call them at 52 169 197.</t>
+          <t>Cafe La Phalene is a highly-rated cafe located in the heart of Sidi Bouzid, Tunisia. It is known for its cozy atmosphere and delicious coffee and pastries. The cafe is open from 8am to midnight, seven days a week, making it a great place to relax and enjoy a cup of coffee at any time of day or night.</t>
         </is>
       </c>
     </row>
@@ -1570,7 +1565,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a top-rated Cafe, check out La Terasse located at La Terasse, Sidi Bouzid. This popular destination offers a range of Cafe options to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 06:30-00:00, but closed on . To get there, use these GPS coordinates: 35.0388485, 9.4902576.</t>
+          <t>La Terasse is a popular cafe with high ratings and positive reviews. It is located in Sidi Bouzid and serves a wide variety of food and drinks in a friendly and inviting atmosphere. The cafe is known for its delicious coffee, pastries, and sandwiches. It is also a great place to meet friends and relax. The cafe is open from 6:30 am to midnight, seven days a week.</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1664,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a great Cafe, check out Cafe Paris located at 2FMF+9JC Cafe Paris, Sidi Bouzid. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on []. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Paris/data=!4m7!3m6!1s0x12fec34661ce8f67:0x47ccae6e56fe4dce!8m2!3d35.0334338!4d9.4740155!16s%2Fg%2F11d_d4jmg2!19sChIJZ4_OYUbD_hIRzk3-Vm6uzEc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at None.</t>
+          <t>Cafe Paris is a highly-rated cafe in Sidi Bouzid, offering delicious food and beverages. Its cozy ambiance and friendly staff make it a great place to relax and socialize. The cafe is conveniently located at (35.0388485, 9.4902576), making it easily accessible to customers in the area.</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1767,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in Sidi Bouzid and craving a caffeine fix, head to Kamchatka lounge coffee at 2FMR+3XV. This top-rated cafe is known for its cozy atmosphere and delicious coffee. They're open from 8 AM to midnight, every day of the week. To get there, just use the GPS coordinates: 35.0388485, 9.4902576. For more info, call them at 97 554 109.</t>
+          <t>Kamchatka lounge coffee is a cafe located in Sidi Bouzid, Tunisia. It's a great place to relax and enjoy a cup of coffee or tea. The cafe also offers a variety of snacks and pastries. Kamchatka lounge coffee is located at 2FMR+3XV Sidi Bouzid, Tunisia. It is open from 8:00am to 12:00am, 7 days a week.</t>
         </is>
       </c>
     </row>
@@ -1879,7 +1874,14 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for something fun to do, check out Cafe BROOKLYN at 2FPJ+66W Cafe BROOKLYN, Sidi Bouzid. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-22:00. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, visit their website at https://www.facebook.com/1131197830365908/posts/1133600320125659/ or call them at 97 222 085.</t>
+          <t>Cafe BROOKLYN is a highly-rated cafe located in Sidi Bouzid, Tunisia. It offers a variety of services, including:
+- Coffee and tea
+- Breakfast and lunch
+- Pastries and desserts
+- WiFi and comfortable seating
+The cafe is open from 6am to 10pm, and is closed on Sundays. It is located at the following address:
+2FPJ+66W Cafe BROOKLYN, Sidi Bouzid
+Cafe BROOKLYN is a great place to relax and enjoy a cup of coffee or tea. The staff is friendly and the atmosphere is relaxed.</t>
         </is>
       </c>
     </row>
@@ -1982,7 +1984,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in Sidi Bouzid and searching for a captivating experience, visit FABRICA at 2FPM+VGQ FABRICA. This top-rated destination is perfect for cafe lovers. With an impressive rating of 4.8, this spot is a must-visit spot. FABRICA's hours of operation are from 07:00-21:00. For easy navigation, utilize these GPS coordinates: 35.0388485, 9.4902576. For further information, contact FABRICA at 97 900 866.</t>
+          <t>FABRICA, a highly-rated cafe located at coordinates (35.0388485, 9.4902576) in Sidi Bouzid, is a popular destination with 4 reviews and a rating of 4.8. Open from 7 AM to 9 PM daily, it offers a cozy and welcoming ambiance to enjoy your favorite beverages and snacks.</t>
         </is>
       </c>
     </row>
@@ -2077,7 +2079,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in Sidi Bouzid and looking for a great cafe, check out Cafe Mimo's located at 2FMF+258. This top-rated destination is perfect for cafe lovers and offers a range of categories to choose from. With a rating of 4.5, it's a must-visit spot. It's open during weekday hours, but closed on unknown days. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, visit their website.</t>
+          <t>Cafe Mimo's is a cafe located in Sidi Bouzid, Tunisia. It is rated 4.5 out of 5 stars on Google Maps, and offers a variety of coffee, tea, and snacks. The cafe is open from 8am to 10pm, and is located at 2FMF+258, Sidi Bouzid.</t>
         </is>
       </c>
     </row>
@@ -2172,9 +2174,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for something fun to do, check out Cafe El Amir located at 2FQR+VP8 Cafe El Amir. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.0388485, 9.4902576.</t>
+          <t>Cafe El Amir is a cafe located in Sidi Bouzid, Tunisia. The cafe is rated 5.0 stars on Google and has received 4 reviews. The cafe's main category is Cafe and its coordinates are (35.0388485, 9.4902576). The cafe's featured image is https://lh5.googleusercontent.com/p/AF1QipMKqsS4-oRJZ1v_SOPCHLgHCgRxSxOE3WT3iOYf=w408-h725-k-no.</t>
         </is>
       </c>
     </row>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a great cafe, check out TO BI GLACE CHEZ AHMED located at Cite wouroud 1 en face de hamadi abid, Sidi Bouzid 9117. This top-rated destination is perfect for cafe lovers and offers a range of categories to choose from. With a perfect rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 42.9222201, 27.6056552. For more details, visit their website at https://www.google.com/maps/place/TO+BI+GLACE+CHEZ+AHMED/data=!4m7!3m6!1s0x12fec372915a2ab5:0xf89ef69e4585f023!8m2!3d35.0334888!4d9.4706921!16s%2Fg%2F11ghppwhl4!19sChIJtSpakXLD_hIRI_CFRZ72nvg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 52 240 916.</t>
+          <t>TO BI GLACE CHEZ AHMED is a cafe located in Sidi Bouzid, Tunisia. It offers a variety of food and drinks, and has a rating of 5.0 out of 5 on Google Maps. The cafe is open 24 hours a day, 7 days a week. It is located at the following address: Cite wouroud 1 en face de hamadi abid, Sidi Bouzid 9117. The cafe's phone number is 52 240 916.</t>
         </is>
       </c>
     </row>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in Sidi Bouzid and looking for a great cafe, check out Cafe Volcano located at 2FQ9+CJ7 Rue union maghrebin. This top-rated destination is perfect for cafe lovers and offers a range of cafe delights to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 06:00-23:00, but closed on []. To get there, use these GPS coordinates: 35.034902, 9.4619265. For more details, visit their website or call them at [].</t>
+          <t>Cafe Volcano, located in Sidi Bouzid, is an exceptional cafe with a 4.7-star rating. It is a popular spot for locals and tourists alike. The cafe offers a wide variety of coffee, tea, and other beverages. It is also a great place to relax and enjoy the vibrant atmosphere of Sidi Bouzid. The cafe is open from 6:00 AM to 11:00 PM seven days a week.</t>
         </is>
       </c>
     </row>
@@ -2475,10 +2475,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in Sidi Bouzid and looking for a great cup of coffee, check out The cup located at 2FMC+HR6 The cup. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 35.0388485, 9.4902576. 
-For more details, visit their website at  or call them at 90 747 000.</t>
+          <t>Located at coordinates (35.0388485, 9.4902576) in Sidi Bouzid, "The cup" is a highly rated cafe with a 5.0 rating based on 3 reviews. The cafe offers a 24-hour service and is known for its cozy atmosphere and delicious offerings.</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2574,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a Cafe, check out Sidi Bouzid located at 2FPM+5H8 Sidi Bouzid. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on dimanche. To get there, use these GPS coordinates: 35.0388485, 9.4902576.</t>
+          <t>Sidi Bouzid is a cafe located in sidi bouzid, Tunisia. It offers a great atmosphere and a variety of drinks and snacks. The cafe is open 24 hours a day, but is closed on Sundays. The average rating for this cafe is 5.0 stars.</t>
         </is>
       </c>
     </row>
@@ -2680,7 +2677,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and in search of a great Cafe experience, look no further than YAHYAOUI COFFEE. Located at 2FQM+2W7 YAHYAOUI COFFEE, Bd Mohamed Bouazizi, Sidi Bouzid, this top-rated spot is open 24 hours a day, so you can satisfy your caffeine cravings whenever you like. With a perfect rating of 5.0, it's a must-visit destination for Cafe enthusiasts. For more information, visit their website or give them a call at 97 965 645.</t>
+          <t>YAHYAOUI COFFEE is a cafe located in Sidi Bouzid, Tunisia. It offers 24 hour service and is highly rated by customers. It is located at 2FQM+2W7 YAHYAOUI COFFEE, Bd Mohamed Bouazizi, with coordinates (35.0388485, 9.4902576).</t>
         </is>
       </c>
     </row>
@@ -2783,7 +2780,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a top-rated Cafe, you must visit Ezzahra cafe. This spot is a great place to enjoy your favourite categories with a rating of 4.0. It's open 24/7 and located at Ezzahra cafe, Sidi Bouzid. For more details, visit their website at https://www.google.com/maps/place/Ezzahra+caf%C3%A9/data=!4m7!3m6!1s0x12fec34acc3beefb:0x5c651b8ae56e2701!8m2!3d35.031033!4d9.4711356!16s%2Fg%2F11tggrcv36!19sChIJ--47zErD_hIRASdu5YobZVw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 53 543 906.</t>
+          <t>Ezzahra cafe is a cafe located in Sidi Bouzid, Tunisia. It's a 24/7 cafe with 4/5 stars reviews on Google and is located in the following coordinates: 35.0388485, 9.4902576.</t>
         </is>
       </c>
     </row>
@@ -2882,7 +2879,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in Sidi Bouzid and looking for a cozy spot to grab a drink, head to COSTA CAFE located at 2FH3+393, Sidi Bouzid. This cafe offers a warm and inviting atmosphere, perfect for coffee enthusiasts. With a rating of 4.3, it's a must-visit spot for anyone who loves a good cup of coffee. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, visit their website or call them at 27 123 845.</t>
+          <t>COSTA CAFE is a cafe located at(35.0388485, 9.4902576) in sidi bouzid. It has a rating of 4.3 based on 3 reviews and offers various amenities such as a featured image, website, phone number, address, and categories like Cafe.</t>
         </is>
       </c>
     </row>
@@ -2977,9 +2974,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in Sidi Bouzid and looking for a relaxing experience, check out The Gold located at 2FMC+33M The Gold, Bd Mohamed Bouazizi. 
-This top-rated destination is perfect for tea lovers and offers a variety of tea options to choose from. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.034902, 9.4619265. For more details, visit their website at https://www.google.com/maps/place/The+Gold/data=!4m7!3m6!1s0x12fec32e782b12c3:0x30f765b3554b53f2!8m2!3d35.0327143!4d9.4701629!16s%2Fg%2F11t9wtzw68!19sChIJwxIreC7D_hIR8lNLVbNl9zA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at.</t>
+          <t>The Gold is a tea room located in Sidi Bouzid. It has a rating of 4.3 out of 5 stars based on 3 reviews. The featured image shows a cozy and inviting atmosphere.</t>
         </is>
       </c>
     </row>
@@ -3082,8 +3077,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a top-rated Cafe spot, check out Cafe Restaurant BALANCE located at Cafe Restaurant BALANCE, 9100. 
-This highly-rated destination is a must-visit spot for Cafe lovers. It's open during these hours: 08:00-20:00, but closed on [none provided]. To get there, use these GPS coordinates: 35.034902, 9.4619265. For more details, visit their website at [none provided] or call them at 99 417 607.</t>
+          <t>Cafe Restaurant BALANCE is a cafe located in Sidi Bouzid, Tunisia. It has a rating of 4.5 stars based on 2 reviews. It is open from 8:00 AM to 8:00 PM and offers a variety of cafe fare. The cafe is located at the coordinates (35.034902, 9.4619265).</t>
         </is>
       </c>
     </row>
@@ -3190,10 +3184,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>The Loft Lounge can be found at 2FMF+8P4 The Loft Lounge, `mr@ lbrqwqy, Sidi Bouzid 9100. 
-It's a top-rated cafe with a rating of 4.0, perfect for cafe enthusiasts. 
-The Loft Lounge is open 24/7 and can be reached at 93 386 338 for any inquiries. 
-For more details, visit their Facebook page at https://www.facebook.com/profile.php%3Fid%3D61553937093550.</t>
+          <t>The Loft Lounge is a 4-star rated Cafe situated in Sidi Bouzid, Tunisia (coordinates 35.034902, 9.4619265). It provides 24h/24 service, and it's possible to contact it at the phone number 93 386 338.</t>
         </is>
       </c>
     </row>
@@ -3300,9 +3291,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a great place to grab a bite, check out BEN jaloul located at Ecole Primaire Cite El Khadhra. 
-This top-rated destination is perfect for Café lovers and serves a range of options to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-23:30. To get there, use these GPS coordinates: 35.0421933, 9.4950972. For more details, visit their website at http://www.facebook.com/1141084022578448 or call them at 90 122 451.</t>
+          <t>BEN jaloul is a 5-star rated cafe located in Sidi Bouzid, Tunisia. It is open from 7:00 AM to 11:30 PM and offers a variety of food and drinks. The cafe is located at the following coordinates: 35.0421933, 9.4950972.</t>
         </is>
       </c>
     </row>
@@ -3401,7 +3390,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid, be sure to visit BIG SMARI JUICE located at 2FMF+8F2 BIG SMARI JUICE, Sidi Bouzid. This top-rated Cafe is perfect for Cafe lovers and offers a variety of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-19:00. To get there, use these GPS coordinates: 35.0388485, 9.4902576.</t>
+          <t>BIG SMARI JUICE is a 5-star rated cafe located in Sidi Bouzid at coordinates (35.0388485, 9.4902576). Open from 7:00 AM to 7:00 PM, it features a variety of cafe offerings.</t>
         </is>
       </c>
     </row>
@@ -3496,9 +3485,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a charming Cafe, check out Kimo cafe located at 2FM9+CWH Kimo cafe, C125, Sidi Bouzid. 
-This top-rated destination offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Kimo+cafe/data=!4m7!3m6!1s0x12fec3172797e5e5:0x261bb615a545a3bb!8m2!3d35.0335634!4d9.4698444!16s%2Fg%2F11hds3yz4z!19sChIJ5eWXJxfD_hIRu6NFpRW2GyY?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>**Kimo cafe** is a cozy cafe located in Sidi Bouzid, Tunisia. It offers a warm and inviting atmosphere, perfect for relaxing and enjoying a cup of coffee or tea. The cafe also serves a variety of pastries and snacks, making it the perfect place to grab a bite to eat. Kimo cafe is conveniently located in the heart of Sidi Bouzid, making it easy to access. With its friendly staff and great coffee, Kimo cafe is the perfect place to relax and enjoy a moment of peace.</t>
         </is>
       </c>
     </row>
@@ -3601,7 +3588,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for something fun to do, check out Cafe Charlotte located at Bd Mohamed Bouazizi, Sidi Bouzid. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-22:00. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, visit their website or call them at 29 147 012.</t>
+          <t>Cafe Charlotte is a cafe located in Sidi Bouzid, Tunisia. It is located on the Bd Mohamed Bouazizi. The cafe offers a variety of coffee and tea drinks, as well as pastries and other light snacks. It is open from 7am to 10pm, and is closed on Sundays.</t>
         </is>
       </c>
     </row>
@@ -3704,8 +3691,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a great Cafe, check out Cafe Belvue located at 2FPW+8F7 Cafe Belvue, Rue Denmark, Sidi Bouzid 9100. 
-This top-rated destination is perfect for Cafe lovers and has a rating of 5.0, making it a must-visit spot. It's open 24 hours a day, so you can stop by anytime. To get there, use these GPS coordinates: 35.034902, 9.4619265. For more details, visit their website or call them at 53 243 653.</t>
+          <t>Discover Cafe Belvue, a cozy cafe located in the heart of Sidi Bouzid. Known for its welcoming atmosphere, Cafe Belvue offers a wide selection of coffee, tea, and pastries to savor. Situated at coordinates (35.034902, 9.4619265), it's the perfect spot to relax, socialize, and enjoy a delightful break.</t>
         </is>
       </c>
     </row>
@@ -3808,7 +3794,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a top-rated Cafe, check out Cafe Margoum located at 2FPR+WC9 Cafe Margoum, Unnamed Road, Sidi Bouzid. This destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, but closed on unspecified days. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, call them at 95 484 870.</t>
+          <t>**Cafe Margoum** is a cafe located in Sidi Bouzid, Tunisia. It's open 24/7 and has a rating of 5.0 stars. The cafe's main category is Cafe. Cafe Margoum is located at the coordinates (35.0388485, 9.4902576).</t>
         </is>
       </c>
     </row>
@@ -3907,7 +3893,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in Sidi Bouzid and looking for a great spot to enjoy a cup of coffee, make sure to visit Vivarium Cafe. This top-rated cafe, located at 5 rue Palestine, is a great option for cafe lovers. With a rating of 4.0, it's a must-visit spot. The cafe is open 24 hours a day, so you can visit any time convenient for you. For more details, visit their website or call them at the provided phone number.</t>
+          <t>The vivarium cafe is located in Sidi Bouzid, Tunisia, at the coordinates (35.038021317603, 9.494247474676). It is a cafe that offers a variety of food and drinks, and is open 24 hours a day. The cafe has a 4.0 rating on Google Maps, and has received one review.</t>
         </is>
       </c>
     </row>
@@ -4010,7 +3996,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>If you find yourself in Sidi Bouzid and craving a great meal, RESTAURANT LA MAMMA at 2FMF+GFJ RESTAURANT LA MAMMA, AVENUE HABIB BOURGUIBA is a top spot for Restaurant lovers. With a rating of 4.4 based on 9 reviews, it's a must-visit destination. Open from 00:00-23:00, it's closed on Sundays. To get there, use the GPS coordinates (35.031703412371, 9.465656233972) or call 98 235 744 for more details.</t>
+          <t>RESTAURANT LA MAMMA is a restaurant located in Sidi Bouzid (Tunisia) at the coordinates (35.031703412371, 9.465656233972). It has a rating of 4.4 out of 5 based on 9 reviews and is open from 00:00 to 23:00 every day except Sunday. The restaurant's main category is Restaurant.</t>
         </is>
       </c>
     </row>
@@ -4113,9 +4099,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a top-rated Restaurant, check out El Pescador Restaurant located at 2FMC+446 El Pescador Restaurant, Bd Mohamed Bouazizi, Sidi Bouzid. 
-This destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 11:00-22:30, but closed on samedi, dimanche. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, call them at 53 059 000.</t>
+          <t>El Pescador Restaurant, located in Sidi Bouzid, is a highly-rated restaurant with a 4.5-star rating based on 12 reviews. Despite not providing a description, it is evident that El Pescador Restaurant is a popular spot with a strong reputation. It is situated at 2FMC+446 El Pescador Restaurant, Bd Mohamed Bouazizi, Sidi Bouzid, with coordinates (35.0388485, 9.4902576). The restaurant's precise menu offerings and other details remain unknown due to the lack of information provided.</t>
         </is>
       </c>
     </row>
@@ -4214,8 +4198,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>If you're in Sidi Bouzid and looking for a reliable mechanic, check out Bouzid located at 2FQQ+MGQ. 
-This top-rated destination offers a range of mechanical services and has a rating of 3.8. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, call them at 97 092 200.</t>
+          <t>Bouzid is a mechanic shop located in Bouzid, Sidi Bouzid. It offers mechanical services and repairs for vehicles. The shop has a rating of 3.8 out of 5 stars, based on 5 reviews. It is located at 2FQQ+MGQ Bouzid, Sidi Bouzid, and can be contacted at 97 092 200.</t>
         </is>
       </c>
     </row>
@@ -4318,9 +4301,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a top-rated Kinesitherapeute, check out Sidi bouzid located at 2FQV+RMJ Sidi bouzid, Sidi Bouzid. 
-This destination is perfect for Kinesitherapeute lovers and has a rating of 4.8 out of 5. 
-It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, visit their website or call them at 53 187 197.</t>
+          <t>Sidi Bouzid is a highly rated kinesitherapy center with a 4.8-star rating and 4 reviews. It is located in Sidi Bouzid, at coordinates (35.0388485, 9.4902576). The center is open 24 hours a day and can be contacted via phone at 53 187 197. The owner's name is Sidi Bouzid, but no additional information is provided. The website and description sections are empty.</t>
         </is>
       </c>
     </row>
@@ -4419,7 +4400,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in Sidi Bouzid and looking for a top-rated cafe, Sidi Bouzid located at 2FPM+5H8 Sidi Bouzid is a must-visit spot. This popular destination has a rating of 5.0 and is open 24 hours a day, except on Sundays. To get there, use the GPS coordinates (35.0388485, 9.4902576).</t>
+          <t>Sidi Bouzid is a highly-rated cafe located at 2FPM+5H8 in Sidi Bouzid. It is open 24 hours a day and closed on Sundays. Sidi Bouzid offers a welcoming atmosphere and has received positive reviews from its patrons.</t>
         </is>
       </c>
     </row>
@@ -4510,7 +4491,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a top-rated destination, check out ISIE Sidi Bouzid. This Administration spot is perfect for Administration lovers and offers a range of Administration categories to choose from. With a rating of 4.0, it's a must-visit spot located at Bd Mohamed Bouazizi, Sidi Bouzid. To get there, use these GPS coordinates: 35.0388485, 9.4902576.</t>
+          <t>ISIE Sidi Bouzid is an administrative establishment located in Sidi Bouzid, Tunisia. It is situated at the coordinates (35.0388485, 9.4902576) and can be found on Bd Mohamed Bouazizi. The establishment has received a 4-star rating based on one review.</t>
         </is>
       </c>
     </row>
@@ -4613,7 +4594,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>If you're in Sidi Bouzid and looking for a Kinesitherapeute, check out Sidi bouzid located at 2FQV+RMJ Sidi bouzid, Sidi Bouzid. This top-rated destination with a rating of 4.8 is a must-visit spot. It's open 24/7, but closed on []. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, visit their website or call them at 53 187 197.</t>
+          <t>Sidi Bouzid (coordinates: 35.0388485, 9.4902576) is a Kinesiology practice located in Sidi Bouzid. The practice is open 24/7 and offers a variety of services.</t>
         </is>
       </c>
     </row>
@@ -4712,9 +4693,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a great cafe, check out Sidi Bouzid located at 2FPM+5H8 Sidi Bouzid. 
-This top-rated destination is the perfect spot for cafe lovers. 
-With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, but closed on sundays. To get there, use these GPS coordinates: 35.0388485, 9.4902576.</t>
+          <t>Sidi Bouzid, a cafe located in Sidi Bouzid (35.0388485, 9.4902576), is open 24 hours a day except on Sundays. It has received 3 reviews and has a 5.0 rating, indicating high customer satisfaction.</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4784,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for something fun to do, check out Sidi Bouzid located at Sidi Bouzid, `mr@ bn mHmwd, Sidi Bouzid 9100. This top-rated destination is perfect for Abbaye lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.034902, 9.4619265. For more details, visit their website at https://www.google.com/maps/place/Sidi+Bouzid/data=!4m7!3m6!1s0x12fec396b784e615:0xa5b8bb71e981efea!8m2!3d35.0393749!4d9.4940751!16s%2Fg%2F11t1tdbbxj!19sChIJFeaEt5bD_hIR6u-B6XG7uKU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Sidi Bouzid is an abbey located in Sidi Bouzid, Tunisia. It is a popular tourist destination, and offers a variety of religious and historical attractions. The abbey is located at 35.034902, 9.4619265.</t>
         </is>
       </c>
     </row>
@@ -4896,7 +4875,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for something related to Administration, check out ISIE Sidi Bouzid located at Bd Mohamed Bouazizi. This top-rated destination with a rating of 4.0 is a must-visit spot. To get there, use these GPS coordinates: 35.0388485, 9.4902576.</t>
+          <t>The ISIE Sidi Bouzid is a government building located in Sidi Bouzid, Tunisia. It offers administrative services to the residents of the region, including voter registration, election management, and other government-related tasks.</t>
         </is>
       </c>
     </row>
@@ -4995,9 +4974,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for something fun to do, check out Societe de Mohamed located at 2FPM+6H6 Societe de Mohamed, mohamedsafikadri@gmail.com, Sidi Bouzid. 
-This top-rated destination is perfect for Musee de la technologie lovers and offers a range of Musee de la technologie to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-20:00, but closed on []. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, visit their website at https://www.google.com/maps/place/Soci%C3%A9t%C3%A9+de+Mohamed/data=!4m7!3m6!1s0x12fec39995434163:0xb7596326a800aee8!8m2!3d35.0355273!4d9.4838981!16s%2Fg%2F11pfbw0n69!19sChIJY0FDlZnD_hIR6K4AqCZjWbc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 95 220 416.</t>
+          <t>Societe de Mohamed is a technology museum located in Sidi Bouzid, Tunisia. It offers a unique insight into the history and development of technology, with a focus on the local industry. The museum is open from 8am to 8pm, and entry is free. It is located at 2FPM+6H6, and can be contacted at mohamedsafikadri@gmail.com.</t>
         </is>
       </c>
     </row>
@@ -5104,9 +5081,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for something fun to do, check out The Loft Lounge located at 2FMF+8P4 The Loft Lounge, `mr@ lbrqwqy, Sidi Bouzid 9100. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 35.034902, 9.4619265. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D61553937093550 or call them at 93 386 338.</t>
+          <t>The Loft Lounge is a cafe located in Sidi Bouzid, Tunisia. It is open 24 hours a day and offers a variety of food and drinks. The cafe is located at 2FMF+8P4, `mr@ lbrqwqy and can be contacted at 93 386 338. The cafe has a rating of 4.0 out of 5 stars on Google Maps.</t>
         </is>
       </c>
     </row>
@@ -5205,7 +5180,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a great place to eat, check out Jet Set located at 2FQV+VJ4. This top-rated restaurant is perfect for food lovers and offers a delicious range of dishes to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 04:00-00:00. To get there, use these GPS coordinates: 35.0388485, 9.4902576.</t>
+          <t>Jet Set is a restaurant located in Sidi Bouzid, Tunisia, offering a variety of dishes and beverages. It is situated at coordinates (35.0388485, 9.4902576), has received a rating of 4.1 out of 5 based on 27 reviews, and is open from 4:00 AM to midnight every day.</t>
         </is>
       </c>
     </row>
@@ -5308,9 +5283,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for something fun to do, check out ROXY Pizzeria located at 2FMC+C84 ROXY Pizzeria, Bd Mohamed Bouazizi, Sidi Bouzid. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, visit their website or call them at 23 263 929.</t>
+          <t>ROXY Pizzeria, located at 2FMC+C84 Bd Mohamed Bouazizi in Sidi Bouzid (35.0388485, 9.4902576), is a popular spot for pizza lovers. Open 24 hours a day, ROXY offers a wide variety of pizzas to satisfy any craving. With a 4.0-star rating from 26 reviews, ROXY is a must-try for anyone in the Sidi Bouzid area.</t>
         </is>
       </c>
     </row>
@@ -5409,9 +5382,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for something fun to do, check out The Lodge located at The Lodge, Unnamed Road, 9100 Av. De Baghdad, Sidi Bouzid. 
-This top-rated destination is perfect for Salon de the lovers and offers a range of Salon de the to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 35.034902, 9.4619265. For more details, visit their website at https://www.google.com/maps/place/The+Lodge/data=!4m7!3m6!1s0x12fec3d4fcb2f413:0x4158ddb5c37390d1!8m2!3d35.0335206!4d9.4758589!16s%2Fg%2F11fl0tc775!19sChIJE_Sy_NTD_hIR0ZBzw7XdWEE?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Located in Sidi Bouzid, The Lodge is a tea room that offers a delightful breakfast. It's located at the coordinates (35.034902, 9.4619265). With a 4.6 rating based on 19 reviews, The Lodge is highly recommended for its cozy ambiance and delicious offerings.</t>
         </is>
       </c>
     </row>
@@ -5514,7 +5485,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a top-rated Restaurant experience, check out El Pescador Restaurant located at 2FMC+446 El Pescador Restaurant, Bd Mohamed Bouazizi, Sidi Bouzid. This excellent spot offers a 4.5 rating with 12 reviews. It's open during these hours: 11:00-22:30, but closed on samedi, dimanche. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, visit their website or call them at 53 059 000.</t>
+          <t>El Pescador Restaurant is a restaurant located in Sidi Bouzid, Tunisia (35.0388485, 9.4902576). It has a 4.5 rating on Google based on 12 reviews. It is open every day from 11:00 to 22:30, except on Saturdays and Sundays, and offers a wide range of dining options.</t>
         </is>
       </c>
     </row>
@@ -5617,9 +5588,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for something fun to do, check out Casablanca located at Bd Mohamed Bouazizi. 
-This top-rated destination is perfect for Salon de the lovers and offers a range of Salon de the to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, call them at 54 771 771.</t>
+          <t>Casablanca is a tea room located in Sidi Bouzid, Tunisia, at the coordinates (35.0388485, 9.4902576). It is highly rated, with 4.6 stars based on 10 reviews. Casablanca is open daily from 7:00 AM to midnight and offers a cozy ambiance for enjoying a cup of tea.</t>
         </is>
       </c>
     </row>
@@ -5722,9 +5691,8 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a tasty bite, check out RESTAURANT LA MAMMA located at 2FMF+GFJ RESTAURANT LA MAMMA, AVENUE HABIB BOURGUIBA. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 00:00-23:00, but closed on dimanche. To get there, use these GPS coordinates: 35.031703412371, 9.465656233972. For more details, call them at 98 235 744.</t>
+          <t>The RESTAURANT LA MAMMA is located in Sidi Bouzid, Tunisia, at the following coordinates: (35.031703412371, 9.465656233972). 
+This restaurant offers a variety of dishes and has received a 4.4-star rating. It is open from 00:00-23:00, but closed on Sundays. You can reach the restaurant by phone at 98 235 744.</t>
         </is>
       </c>
     </row>
@@ -5827,9 +5795,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for something fun to do, check out Pizza_Maestro located at 9100 Bd Mohamed Bouazizi. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-23:00. To get there, use these GPS coordinates: 35.034902, 9.4619265. For more details, call them at 97 132 700.</t>
+          <t>Pizza_Maestro is a 4.0 star rated restaurant located in Sidi Bouzid, Tunisia. It has 8 reviews and is open from 8:00 AM to 11:00 PM.</t>
         </is>
       </c>
     </row>
@@ -5932,9 +5898,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a top-rated dining experience, check out L'yasmina located at 2FQQ+QMF L'yasmina, rue ibn mandhour. 
-This popular destination is perfect for Restaurant lovers and offers a range of categories to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 08:00-21:00, but closed on dimanche. To get there, use these GPS coordinates: 35.039457751658, 9.489923389555. For more details, call them at 53 797 366.</t>
+          <t>L'yasmina, a renowned restaurant situated at 2FQQ+QMF L'yasmina, rue ibn mandhour, Sidi Bouzid, offers delectable culinary delights. Boasting a remarkable rating of 4.8, it is renowned for its exceptional cuisine. With a convenient opening time of 8 AM to 9 PM, excluding Sundays, it provides a welcoming atmosphere for diners.</t>
         </is>
       </c>
     </row>
@@ -6029,7 +5993,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for something fun to do, check out mT`m lTrbwsh Restaurant Tarbouch located at 2FQM+5FX mT`m lTrbwsh Restaurant Tarbouch, nhj ljm`, Sidi Bouzid. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D8%B7%D8%B9%D9%85+%D8%A7%D9%84%D8%B7%D8%B1%D8%A8%D9%88%D8%B4+Restaurant+Tarbouch%E2%80%AD/data=!4m7!3m6!1s0x12fec307aacd0a89:0x178b516c9ff2a00d!8m2!3d35.0379863!4d9.4837242!16s%2Fg%2F11jxtgzsvv!19sChIJiQrNqgfD_hIRDaDyn2xRixc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>mT`m lTrbwsh Restaurant Tarbouch is a restaurant located in Sidi Bouzid. It has a rating of 4.8 stars and offers a variety of dishes. The restaurant is located at 2FQM+5FX mT`m lTrbwsh Restaurant Tarbouch, nhj ljm`, Sidi Bouzid, with the coordinates (35.0388485, 9.4902576).</t>
         </is>
       </c>
     </row>
@@ -6132,11 +6096,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid, Restaurant Alkhayma Sidi Bouzid mT`m lkhym@ is a top-rated restaurant located at Bd Mohamed Bouazizi, Sidi Bouzid 9100.
-This 5.0-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories.
-It's open during these hours: 08:00-21:00, but closed on [].
-To get there, use these GPS coordinates: 35.034902, 9.4619265.
-For more details, visit their website at nan or call them at 90 363 142.</t>
+          <t>Restaurant Alkhayma Sidi Bouzid is a 5-star restaurant located in Sidi Bouzid, Tunisia. It offers a variety of dishes, and is open from 8am to 9pm. The restaurant is located at Bd Mohamed Bouazizi, and can be contacted at 90 363 142.</t>
         </is>
       </c>
     </row>
@@ -6231,9 +6191,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a great place to relax, check out The Gold located at 2FMC+33M The Gold, Bd Mohamed Bouazizi, Sidi Bouzid 9100. 
-This top-rated destination is perfect for Salon de the lovers and offers a range of Salon de the to choose from. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.034902, 9.4619265.</t>
+          <t>The Gold is a well-rated tea salon in Sidi Bouzid, Tunisia, that offers a cozy and relaxing atmosphere with a 4.3-star rating based on 3 reviews. It is located at coordinates (35.034902, 9.4619265) on Bd Mohamed Bouazizi.</t>
         </is>
       </c>
     </row>
@@ -6328,9 +6286,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for something fun to do, check out Pizzeria Mahboub located at 2FJF+G34 Pizzeria Mahboub, Ave Mohamed V,. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Pizzeria+Mahboub/data=!4m7!3m6!1s0x12fec3c7f53751e9:0x1ada7767943de41c!8m2!3d35.0312547!4d9.4726944!16s%2Fg%2F11scx9c8n3!19sChIJ6VE39cfD_hIRHOQ9lGd32ho?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Pizzeria Maboub is a top-rated pizzeria located in Ave Mohamed V, Sidi Bouzid, Tunisia. It offers delicious pizza options and is highly reviewed by its customers, earning a 5.0 rating. Its precise location is at the coordinates (35.033395959383, 9.479163264733).</t>
         </is>
       </c>
     </row>
@@ -6433,7 +6389,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for something fun to do, check out Cafe Restaurant BALANCE located at Cafe Restaurant BALANCE, 9100, Sidi Bouzid 9100. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 08:00-20:00, but closed on []. To get there, use these GPS coordinates: 35.034902, 9.4619265. For more details, visit their website at nan or call them at 99 417 607.</t>
+          <t>Cafe Restaurant BALANCE is a highly-rated cafe in Sidi Bouzid, Tunisia, with a 4.5-star rating based on 2 reviews. Located at the coordinates (35.034902, 9.4619265), the cafe offers a welcoming ambiance and a delicious menu. Its weekday timing is from 8 am to 8 pm, providing ample opportunity to enjoy its offerings.</t>
         </is>
       </c>
     </row>
@@ -6528,7 +6484,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for something fun to do, check out Kimo cafe located at 2FM9+CWH Kimo cafe, C125, Sidi Bouzid. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: nan, but closed on . To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, visit their website at .</t>
+          <t>"Kimo Cafe" is a cafe located in the city of Sidi Bouzid at coordinates (35.0388485, 9.4902576). It has a rating of 5.0 stars based on 2 reviews and is a popular spot for people to enjoy a coffee or a snack.</t>
         </is>
       </c>
     </row>
@@ -6623,9 +6579,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a good place to eat, check out Fast food at C83, Sidi Bouzid. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4, it's a must-visit spot. To get there, use these GPS coordinates: 35.0388485, 9.4902576.</t>
+          <t>Fast Food is a restaurant located in 2FQV+G4G Fast food, C83, Sidi Bouzid. Its main category is Restaurant and its rating is 4.0. The restaurant is not in the city center.</t>
         </is>
       </c>
     </row>
@@ -6732,10 +6686,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a delicious Mexican meal, check out MIX FOOD at 2FJG+XPH MIX FOOD, Ave Mohamed V. 
-This top-rated restaurant is perfect for Mexican food lovers and offers a range of dishes to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-22:00, but closed on unknown days. 
-To get there, use these GPS coordinates: 35.033395959383, 9.479163264733. For more details, visit their website at https://m.facebook.com/Mix-Food-110174748554305/ or call them at 50 844 517.</t>
+          <t>**MIX FOOD** is a highly-rated Mexican restaurant in Sidi Bouzid, Tunisia. It is located at 2FJG+XPH MIX FOOD, Ave Mohamed V, and is open daily from 9 am to 10 pm. Its featured image displays an appetizing dish, and its menu offers a variety of Mexican dishes. With a rating of 5.0 based on one review, MIX FOOD is an excellent option for those seeking delicious Mexican cuisine in the area.</t>
         </is>
       </c>
     </row>
@@ -6834,7 +6785,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a great spot for Restaurant de poisson, check out recipe-fish-seafood. With a 5.0 rating, this popular destination offers a delicious range of Restaurant de poisson options. It's open 24 hours a day, so you can visit anytime. For more details, visit their website at https://www.google.com/maps/place/recipe-fish-seafood/data=!4m7!3m6!1s0x12fec3573c54571d:0x2f101ff0633dd446!8m2!3d35.0354234!4d9.483967!16s%2Fg%2F11tjfh14vf!19sChIJHVdUPFfD_hIRRtQ9Y_AfEC8?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>recipe-fish-seafood is a restaurant located in Sidi Bouzid, Tunisia, specializing in seafood cuisine. It has a 5.0 rating and offers 24-hour service. Its precise location is at coordinates (35.034902, 9.4619265).</t>
         </is>
       </c>
     </row>
@@ -6925,7 +6876,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for something fun to do, check out resaurant ALI BABA located at 2FQV+XC5 resaurant ALI BABA, Sidi Bouzid. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.0388485, 9.4902576.</t>
+          <t>Resaurant ALI BABA is a restaurant located in Sidi Bouzid, Tunisia. It offers a variety of dishes and has a rating of 4.0 on Google. The restaurant is located at the coordinates (35.0388485, 9.4902576).</t>
         </is>
       </c>
     </row>
@@ -7020,7 +6971,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a great Pizzeria, check out Foodies located at Foodies, mrkz ltkwyn lmhny wltdryb lSn`y bsydy bwzyd, l'Union Maghreb Arabe, Sidi Bouzid. This top-rated destination is perfect for Pizzeria lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, visit their website or call them at 92 785 901.</t>
+          <t>Foodies is a Pizzeria located in Sidi Bouzid, Tunisia. It's known for its delicious pizzas and friendly service and is a great place to enjoy a meal with friends and family.</t>
         </is>
       </c>
     </row>
@@ -7115,9 +7066,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for something fun to do, check out mT`m lmr `byd - Restaurant Abid located at 2FQR+MGV mT`m lmr `byd - Restaurant Abid, Sidi Bouzid. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D8%B7%D8%B9%D9%85+%D8%A7%D9%84%D8%A7%D9%85%D8%B1%D8%A7%D8%A1+%D8%B9%D8%A8%D9%8A%D8%AF+-+Restaurant+Abid%E2%80%AD/data=!4m7!3m6!1s0x12fec3cd942a1dbb:0xe83224f18cadece8!8m2!3d35.0392386!4d9.4913007!16s%2Fg%2F11fd5js59c!19sChIJux0qlM3D_hIR6OytjPEkMug?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>**mT`m lmr `byd - Restaurant Abid** is a restaurant located at 2FQR+MGV mT`m lmr `byd - Restaurant Abid, Sidi Bouzid (35.0388485, 9.4902576). Its rating is 5/5 with 1 review. No other information is available at this day.</t>
         </is>
       </c>
     </row>
@@ -7220,7 +7169,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a top-rated spot, visit Break Time Fast food located at 2FRR+9JF Break Time Fast food. This destination is perfect for Restaurant lovers and offers Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-10:00, but closed on dimanche. To get there, use these GPS coordinates: 35.0388485, 9.4902576. For more details, visit their website at  or call them at 52 246 534.</t>
+          <t>**Break Time Fast Food** in Sidi Bouzid is a highly-rated restaurant (5.0 stars from 1 review) that opens from 7:00 AM to 10:00 AM daily. It is closed on Sundays. Located at coordinates (35.0388485, 9.4902576), the restaurant's main category is "Restaurant" and it offers various dining options to customers in the area.</t>
         </is>
       </c>
     </row>
@@ -7319,7 +7268,9 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid, vivarium cafe at 5 rue Palestine is a must-visit spot for Cafe enthusiasts. With a 4.0 rating and open 24 hours a day, you'll never miss out on enjoying their offerings. For more information, visit their website or call them. GPS coordinates: (35.038021317603, 9.494247474676)</t>
+          <t>**Vivarium Cafe** is a highly-rated (4.0/5) cafe located at 5 rue Palestine in Sidi Bouzid, Tunisia. It offers a wide range of hot and cold beverages, as well as a variety of snacks and light meals. It is a great place to relax with friends or grab a quick bite to eat.
+**Coordinates:** (35.038021317603, 9.494247474676)
+**Hours:** Open 24 hours a day</t>
         </is>
       </c>
     </row>
@@ -7414,9 +7365,7 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for something fun to do, check out Station louage de Sidi Bouzid located at Station louage de Sidi Bouzid, mHT@ lHflt, Bd Mohamed Bouazizi, Sidi Bouzid. 
-This top-rated destination is perfect for Service de taxi lovers and offers a range of Service de taxi to choose from. 
-With a rating of 3.0, it's a must-visit spot. For more details, visit their link at https://www.google.com/maps/place/Station+louage+de+Sidi+Bouzid/data=!4m7!3m6!1s0x12fec3ddc78ee22f:0xff2479ecad49b880!8m2!3d35.0439943!4d9.4963418!16s%2Fg%2F11q42k_8kt!19sChIJL-KOx93D_hIRgLhJrex5JP8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Station louage de Sidi Bouzid is a taxi service located in Sidi Bouzid, Tunisia. It offers transportation services to various destinations and has received mixed reviews from customers, with a rating of 3.0 out of 5.</t>
         </is>
       </c>
     </row>
@@ -7511,9 +7460,7 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a train station, check out mstwd` Hflt lnql l`mwmy located at mstwd` Hflt lnql l`mwmy, Sidi Bouzid. 
-This top-rated destination is perfect for train station lovers. 
-With a rating of 2.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.0388485, 9.4902576.</t>
+          <t>The bus station `mstwd` Hflt lnql l`mwmy is located in Sidi Bouzid, Tunisia. It is a medium-sized station with 3 reviews and an average rating of 2.0 stars. The station offers a variety of services including bus ticketing, baggage storage, and a waiting area. It is located near the center of the city, making it easy to access by foot or public transportation.</t>
         </is>
       </c>
     </row>
@@ -7604,7 +7551,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for something fun to do, check out Taxi station located at 2FQQ+945 Taxi station, Sidi Bouzid. This top-rated destination is perfect for Station de taxis lovers and offers a range of Station de taxis to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.0383756, 9.4876022. For more details, visit their website at https://www.google.com/maps/place/Taxi+station/data=!4m7!3m6!1s0x12fec3a05a3c9c4b:0x8844b46c75b038af!8m2!3d35.0383994!4d9.4878531!16s%2Fg%2F11fnxtq68z!19sChIJS5w8WqDD_hIRrziwdWy0RIg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Taxi station is a 5-star rated taxi station located in Sidi Bouzid, Tunisia. It offers taxi services and is situated at (35.0383756, 9.4876022).</t>
         </is>
       </c>
     </row>
@@ -7695,10 +7642,7 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>If you're in sidi bouzid and looking for a reliable taxi service, check out mHT@ syrt lnql byn lmdn  lwj located at 2FVW+HGH mHT@ syrt lnql byn lmdn  lwj , C83. 
-This top-rated taxi station is perfect for travelers and offers a convenient transportation option. 
-With a rating of 5.0, it's a must-visit spot for getting around the city. Open 24/7, mHT@ syrt lnql byn lmdn  lwj is always available when you need it. 
-To get there, use these GPS coordinates: 35.0388485, 9.4902576.</t>
+          <t>This taxi rank is located in Sidi Bouzid, Tunisia, at coordinates (35.0388485, 9.4902576). It has only one review and a rating of 5.0. The place is owned by "mHT@ syrt lnql byn lmdn  lwj  (proprietaire)". No further information is available about its services or amenities.</t>
         </is>
       </c>
     </row>
